--- a/modelos/Quadro Quantitativo de Inclusão - Modelo.xlsx
+++ b/modelos/Quadro Quantitativo de Inclusão - Modelo.xlsx
@@ -1,45 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neto\Desktop\secretariapadin\modelos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Seduc-0584\dados\Divisão de Planejamento e Vagas\13-Quadros Geral de Salas\2025\QUADRO QUANTITATIVO DE INCLUSÃO - ESCOLAS\Enviar p as escolas 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19F8F5B6-EA89-4042-A59E-1E6BF546E235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20492" windowHeight="6826"/>
   </bookViews>
   <sheets>
     <sheet name="PADIN" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Fernanda Boscaine Armelin - RF: 48.804 - SEDUC</author>
   </authors>
   <commentList>
-    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="B4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -63,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="C8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -87,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="K8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -106,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="48">
   <si>
     <t>TOTAL DE ALUNOS DE INCLUSÃO</t>
   </si>
@@ -123,12 +113,18 @@
     <t>SECRETARIA DA EDUCAÇÃO</t>
   </si>
   <si>
+    <t>QUADRO QUANTITATIVO DE INCLUSÃO - MÊS/2025</t>
+  </si>
+  <si>
     <t>Atualizado por:</t>
   </si>
   <si>
     <t>Data da Atualização:</t>
   </si>
   <si>
+    <t>_____/_____/2025</t>
+  </si>
+  <si>
     <t>ENSINO FUNDAMENTAL</t>
   </si>
   <si>
@@ -244,15 +240,12 @@
   </si>
   <si>
     <t xml:space="preserve">EJA 1ª A 4ª </t>
-  </si>
-  <si>
-    <t>QUADRO QUANTITATIVO DE INCLUSÃO - MÊS/2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -841,10 +834,106 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -852,102 +941,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -983,13 +976,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Imagem 1"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1033,13 +1020,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagem 12" descr="1.jpg">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Imagem 12" descr="1.jpg"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1099,19 +1080,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1277710</xdr:colOff>
+      <xdr:colOff>1306285</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1318846</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagem 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="Imagem 3"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1405,62 +1380,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:R118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:B15"/>
+      <selection activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.65" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.55" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.140625" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" customWidth="1"/>
-    <col min="5" max="5" width="3.5703125" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" customWidth="1"/>
-    <col min="7" max="7" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" customWidth="1"/>
-    <col min="9" max="9" width="3.5703125" customWidth="1"/>
-    <col min="10" max="10" width="22.5703125" customWidth="1"/>
-    <col min="11" max="11" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.5703125" customWidth="1"/>
-    <col min="13" max="13" width="2.140625" customWidth="1"/>
+    <col min="1" max="1" width="2.125" customWidth="1"/>
+    <col min="2" max="2" width="19.125" customWidth="1"/>
+    <col min="3" max="3" width="38.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.625" customWidth="1"/>
+    <col min="5" max="5" width="3.625" customWidth="1"/>
+    <col min="6" max="6" width="22.625" customWidth="1"/>
+    <col min="7" max="7" width="38.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.625" customWidth="1"/>
+    <col min="9" max="9" width="3.625" customWidth="1"/>
+    <col min="10" max="10" width="22.625" customWidth="1"/>
+    <col min="11" max="11" width="38.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.625" customWidth="1"/>
+    <col min="13" max="13" width="2.125" customWidth="1"/>
     <col min="14" max="18" width="0" hidden="1" customWidth="1"/>
     <col min="19" max="16384" width="9" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" s="4" customFormat="1" ht="109.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="65" t="s">
+    <row r="1" spans="2:12" s="4" customFormat="1" ht="109.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
     </row>
     <row r="2" spans="2:12" s="4" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
@@ -1476,32 +1451,32 @@
       <c r="L3" s="9"/>
     </row>
     <row r="4" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="66" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="68"/>
+      <c r="B4" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="66"/>
     </row>
     <row r="5" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="66"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="68"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="66"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="10"/>
@@ -1516,37 +1491,39 @@
       <c r="K6" s="11"/>
       <c r="L6" s="12"/>
     </row>
-    <row r="7" spans="2:12" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="45"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="48"/>
-    </row>
-    <row r="8" spans="2:12" s="15" customFormat="1" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:12" ht="19.05" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B7" s="67"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="71"/>
+    </row>
+    <row r="8" spans="2:12" s="15" customFormat="1" ht="19.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="71"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
+        <v>6</v>
+      </c>
+      <c r="C8" s="72"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
       <c r="J8" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="K8" s="73"/>
-      <c r="L8" s="74"/>
+        <v>7</v>
+      </c>
+      <c r="K8" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" s="75"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="40"/>
@@ -1574,20 +1551,20 @@
       <c r="K10" s="17"/>
       <c r="L10" s="18"/>
     </row>
-    <row r="11" spans="2:12" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="75" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="76"/>
-      <c r="H11" s="76"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="76"/>
-      <c r="K11" s="76"/>
-      <c r="L11" s="77"/>
+    <row r="11" spans="2:12" ht="40.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="61"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="16"/>
@@ -1603,24 +1580,24 @@
       <c r="L12" s="18"/>
     </row>
     <row r="13" spans="2:12" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="63" t="s">
-        <v>10</v>
+      <c r="B13" s="57" t="s">
+        <v>12</v>
       </c>
       <c r="C13" s="19" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="64" t="s">
-        <v>17</v>
+      <c r="F13" s="58" t="s">
+        <v>19</v>
       </c>
       <c r="G13" s="19" t="s">
         <v>1</v>
       </c>
       <c r="H13" s="20"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="64" t="s">
-        <v>37</v>
+      <c r="J13" s="58" t="s">
+        <v>39</v>
       </c>
       <c r="K13" s="19" t="s">
         <v>1</v>
@@ -1628,44 +1605,44 @@
       <c r="L13" s="21"/>
     </row>
     <row r="14" spans="2:12" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="63"/>
+      <c r="B14" s="57"/>
       <c r="C14" s="22" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="64"/>
+      <c r="F14" s="58"/>
       <c r="G14" s="43" t="s">
         <v>2</v>
       </c>
       <c r="H14" s="20"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="64"/>
+      <c r="J14" s="58"/>
       <c r="K14" s="22" t="s">
         <v>2</v>
       </c>
       <c r="L14" s="21"/>
     </row>
     <row r="15" spans="2:12" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="63"/>
+      <c r="B15" s="57"/>
       <c r="C15" s="23" t="s">
         <v>3</v>
       </c>
       <c r="D15" s="20"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="64"/>
+      <c r="F15" s="58"/>
       <c r="G15" s="44" t="s">
         <v>3</v>
       </c>
       <c r="H15" s="20"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="64"/>
+      <c r="J15" s="58"/>
       <c r="K15" s="23" t="s">
         <v>3</v>
       </c>
       <c r="L15" s="21"/>
     </row>
-    <row r="16" spans="2:12" s="2" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" s="2" customFormat="1" ht="7.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="24"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
@@ -1679,24 +1656,24 @@
       <c r="L16" s="28"/>
     </row>
     <row r="17" spans="2:12" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="63" t="s">
-        <v>11</v>
+      <c r="B17" s="57" t="s">
+        <v>13</v>
       </c>
       <c r="C17" s="19" t="s">
         <v>1</v>
       </c>
       <c r="D17" s="20"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="64" t="s">
-        <v>18</v>
+      <c r="F17" s="58" t="s">
+        <v>20</v>
       </c>
       <c r="G17" s="19" t="s">
         <v>1</v>
       </c>
       <c r="H17" s="20"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="64" t="s">
-        <v>38</v>
+      <c r="J17" s="58" t="s">
+        <v>40</v>
       </c>
       <c r="K17" s="19" t="s">
         <v>1</v>
@@ -1704,44 +1681,44 @@
       <c r="L17" s="21"/>
     </row>
     <row r="18" spans="2:12" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="63"/>
+      <c r="B18" s="57"/>
       <c r="C18" s="22" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="20"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="64"/>
+      <c r="F18" s="58"/>
       <c r="G18" s="43" t="s">
         <v>2</v>
       </c>
       <c r="H18" s="20"/>
       <c r="I18" s="3"/>
-      <c r="J18" s="64"/>
+      <c r="J18" s="58"/>
       <c r="K18" s="22" t="s">
         <v>2</v>
       </c>
       <c r="L18" s="21"/>
     </row>
     <row r="19" spans="2:12" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="63"/>
+      <c r="B19" s="57"/>
       <c r="C19" s="23" t="s">
         <v>3</v>
       </c>
       <c r="D19" s="20"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="64"/>
+      <c r="F19" s="58"/>
       <c r="G19" s="44" t="s">
         <v>3</v>
       </c>
       <c r="H19" s="20"/>
       <c r="I19" s="3"/>
-      <c r="J19" s="64"/>
+      <c r="J19" s="58"/>
       <c r="K19" s="23" t="s">
         <v>3</v>
       </c>
       <c r="L19" s="21"/>
     </row>
-    <row r="20" spans="2:12" s="2" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" s="2" customFormat="1" ht="8.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="24"/>
       <c r="C20" s="27"/>
       <c r="D20" s="27"/>
@@ -1755,24 +1732,24 @@
       <c r="L20" s="28"/>
     </row>
     <row r="21" spans="2:12" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="63" t="s">
-        <v>12</v>
+      <c r="B21" s="57" t="s">
+        <v>14</v>
       </c>
       <c r="C21" s="19" t="s">
         <v>1</v>
       </c>
       <c r="D21" s="20"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="64" t="s">
-        <v>19</v>
+      <c r="F21" s="58" t="s">
+        <v>21</v>
       </c>
       <c r="G21" s="19" t="s">
         <v>1</v>
       </c>
       <c r="H21" s="20"/>
       <c r="I21" s="3"/>
-      <c r="J21" s="64" t="s">
-        <v>25</v>
+      <c r="J21" s="58" t="s">
+        <v>27</v>
       </c>
       <c r="K21" s="19" t="s">
         <v>1</v>
@@ -1780,44 +1757,44 @@
       <c r="L21" s="21"/>
     </row>
     <row r="22" spans="2:12" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="63"/>
+      <c r="B22" s="57"/>
       <c r="C22" s="22" t="s">
         <v>2</v>
       </c>
       <c r="D22" s="20"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="64"/>
+      <c r="F22" s="58"/>
       <c r="G22" s="43" t="s">
         <v>2</v>
       </c>
       <c r="H22" s="20"/>
       <c r="I22" s="3"/>
-      <c r="J22" s="64"/>
+      <c r="J22" s="58"/>
       <c r="K22" s="22" t="s">
         <v>2</v>
       </c>
       <c r="L22" s="21"/>
     </row>
     <row r="23" spans="2:12" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="63"/>
+      <c r="B23" s="57"/>
       <c r="C23" s="23" t="s">
         <v>3</v>
       </c>
       <c r="D23" s="20"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="64"/>
+      <c r="F23" s="58"/>
       <c r="G23" s="44" t="s">
         <v>3</v>
       </c>
       <c r="H23" s="20"/>
       <c r="I23" s="3"/>
-      <c r="J23" s="64"/>
+      <c r="J23" s="58"/>
       <c r="K23" s="23" t="s">
         <v>3</v>
       </c>
       <c r="L23" s="21"/>
     </row>
-    <row r="24" spans="2:12" s="2" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" s="2" customFormat="1" ht="8.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="24"/>
       <c r="C24" s="25"/>
       <c r="D24" s="27"/>
@@ -1831,24 +1808,24 @@
       <c r="L24" s="28"/>
     </row>
     <row r="25" spans="2:12" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="63" t="s">
-        <v>13</v>
+      <c r="B25" s="57" t="s">
+        <v>15</v>
       </c>
       <c r="C25" s="19" t="s">
         <v>1</v>
       </c>
       <c r="D25" s="20"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="64" t="s">
-        <v>36</v>
+      <c r="F25" s="58" t="s">
+        <v>38</v>
       </c>
       <c r="G25" s="19" t="s">
         <v>1</v>
       </c>
       <c r="H25" s="20"/>
       <c r="I25" s="3"/>
-      <c r="J25" s="64" t="s">
-        <v>26</v>
+      <c r="J25" s="58" t="s">
+        <v>28</v>
       </c>
       <c r="K25" s="19" t="s">
         <v>1</v>
@@ -1856,44 +1833,44 @@
       <c r="L25" s="21"/>
     </row>
     <row r="26" spans="2:12" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="63"/>
+      <c r="B26" s="57"/>
       <c r="C26" s="22" t="s">
         <v>2</v>
       </c>
       <c r="D26" s="20"/>
       <c r="E26" s="3"/>
-      <c r="F26" s="64"/>
+      <c r="F26" s="58"/>
       <c r="G26" s="43" t="s">
         <v>2</v>
       </c>
       <c r="H26" s="20"/>
       <c r="I26" s="3"/>
-      <c r="J26" s="64"/>
+      <c r="J26" s="58"/>
       <c r="K26" s="22" t="s">
         <v>2</v>
       </c>
       <c r="L26" s="21"/>
     </row>
     <row r="27" spans="2:12" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="63"/>
+      <c r="B27" s="57"/>
       <c r="C27" s="23" t="s">
         <v>3</v>
       </c>
       <c r="D27" s="20"/>
       <c r="E27" s="3"/>
-      <c r="F27" s="64"/>
+      <c r="F27" s="58"/>
       <c r="G27" s="44" t="s">
         <v>3</v>
       </c>
       <c r="H27" s="20"/>
       <c r="I27" s="3"/>
-      <c r="J27" s="64"/>
+      <c r="J27" s="58"/>
       <c r="K27" s="23" t="s">
         <v>3</v>
       </c>
       <c r="L27" s="21"/>
     </row>
-    <row r="28" spans="2:12" s="2" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" s="2" customFormat="1" ht="8.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="24"/>
       <c r="C28" s="27"/>
       <c r="D28" s="27"/>
@@ -1907,24 +1884,24 @@
       <c r="L28" s="28"/>
     </row>
     <row r="29" spans="2:12" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="63" t="s">
-        <v>14</v>
+      <c r="B29" s="57" t="s">
+        <v>16</v>
       </c>
       <c r="C29" s="19" t="s">
         <v>1</v>
       </c>
       <c r="D29" s="20"/>
       <c r="E29" s="3"/>
-      <c r="F29" s="64" t="s">
-        <v>20</v>
+      <c r="F29" s="58" t="s">
+        <v>22</v>
       </c>
       <c r="G29" s="19" t="s">
         <v>1</v>
       </c>
       <c r="H29" s="20"/>
       <c r="I29" s="3"/>
-      <c r="J29" s="64" t="s">
-        <v>27</v>
+      <c r="J29" s="58" t="s">
+        <v>29</v>
       </c>
       <c r="K29" s="19" t="s">
         <v>1</v>
@@ -1932,44 +1909,44 @@
       <c r="L29" s="28"/>
     </row>
     <row r="30" spans="2:12" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="63"/>
+      <c r="B30" s="57"/>
       <c r="C30" s="22" t="s">
         <v>2</v>
       </c>
       <c r="D30" s="20"/>
       <c r="E30" s="3"/>
-      <c r="F30" s="64"/>
+      <c r="F30" s="58"/>
       <c r="G30" s="43" t="s">
         <v>2</v>
       </c>
       <c r="H30" s="20"/>
       <c r="I30" s="3"/>
-      <c r="J30" s="64"/>
+      <c r="J30" s="58"/>
       <c r="K30" s="22" t="s">
         <v>2</v>
       </c>
       <c r="L30" s="21"/>
     </row>
     <row r="31" spans="2:12" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="63"/>
+      <c r="B31" s="57"/>
       <c r="C31" s="23" t="s">
         <v>3</v>
       </c>
       <c r="D31" s="20"/>
       <c r="E31" s="3"/>
-      <c r="F31" s="64"/>
+      <c r="F31" s="58"/>
       <c r="G31" s="44" t="s">
         <v>3</v>
       </c>
       <c r="H31" s="20"/>
       <c r="I31" s="3"/>
-      <c r="J31" s="64"/>
+      <c r="J31" s="58"/>
       <c r="K31" s="23" t="s">
         <v>3</v>
       </c>
       <c r="L31" s="21"/>
     </row>
-    <row r="32" spans="2:12" s="2" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" s="2" customFormat="1" ht="8.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="24"/>
       <c r="C32" s="25"/>
       <c r="D32" s="27"/>
@@ -1983,24 +1960,24 @@
       <c r="L32" s="28"/>
     </row>
     <row r="33" spans="2:12" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="63" t="s">
-        <v>34</v>
+      <c r="B33" s="57" t="s">
+        <v>36</v>
       </c>
       <c r="C33" s="19" t="s">
         <v>1</v>
       </c>
       <c r="D33" s="20"/>
       <c r="E33" s="3"/>
-      <c r="F33" s="64" t="s">
-        <v>21</v>
+      <c r="F33" s="58" t="s">
+        <v>23</v>
       </c>
       <c r="G33" s="19" t="s">
         <v>1</v>
       </c>
       <c r="H33" s="20"/>
       <c r="I33" s="3"/>
-      <c r="J33" s="64" t="s">
-        <v>28</v>
+      <c r="J33" s="58" t="s">
+        <v>30</v>
       </c>
       <c r="K33" s="19" t="s">
         <v>1</v>
@@ -2008,44 +1985,44 @@
       <c r="L33" s="28"/>
     </row>
     <row r="34" spans="2:12" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="63"/>
+      <c r="B34" s="57"/>
       <c r="C34" s="22" t="s">
         <v>2</v>
       </c>
       <c r="D34" s="20"/>
       <c r="E34" s="3"/>
-      <c r="F34" s="64"/>
+      <c r="F34" s="58"/>
       <c r="G34" s="43" t="s">
         <v>2</v>
       </c>
       <c r="H34" s="20"/>
       <c r="I34" s="3"/>
-      <c r="J34" s="64"/>
+      <c r="J34" s="58"/>
       <c r="K34" s="22" t="s">
         <v>2</v>
       </c>
       <c r="L34" s="21"/>
     </row>
     <row r="35" spans="2:12" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="63"/>
+      <c r="B35" s="57"/>
       <c r="C35" s="23" t="s">
         <v>3</v>
       </c>
       <c r="D35" s="20"/>
       <c r="E35" s="3"/>
-      <c r="F35" s="64"/>
+      <c r="F35" s="58"/>
       <c r="G35" s="44" t="s">
         <v>3</v>
       </c>
       <c r="H35" s="20"/>
       <c r="I35" s="3"/>
-      <c r="J35" s="64"/>
+      <c r="J35" s="58"/>
       <c r="K35" s="23" t="s">
         <v>3</v>
       </c>
       <c r="L35" s="21"/>
     </row>
-    <row r="36" spans="2:12" s="2" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:12" s="2" customFormat="1" ht="8.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="24"/>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -2059,24 +2036,24 @@
       <c r="L36" s="28"/>
     </row>
     <row r="37" spans="2:12" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="63" t="s">
-        <v>35</v>
+      <c r="B37" s="57" t="s">
+        <v>37</v>
       </c>
       <c r="C37" s="19" t="s">
         <v>1</v>
       </c>
       <c r="D37" s="20"/>
       <c r="E37" s="3"/>
-      <c r="F37" s="64" t="s">
-        <v>22</v>
+      <c r="F37" s="58" t="s">
+        <v>24</v>
       </c>
       <c r="G37" s="19" t="s">
         <v>1</v>
       </c>
       <c r="H37" s="20"/>
       <c r="I37" s="3"/>
-      <c r="J37" s="64" t="s">
-        <v>39</v>
+      <c r="J37" s="58" t="s">
+        <v>41</v>
       </c>
       <c r="K37" s="19" t="s">
         <v>1</v>
@@ -2084,44 +2061,44 @@
       <c r="L37" s="28"/>
     </row>
     <row r="38" spans="2:12" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="63"/>
+      <c r="B38" s="57"/>
       <c r="C38" s="22" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="20"/>
       <c r="E38" s="3"/>
-      <c r="F38" s="64"/>
+      <c r="F38" s="58"/>
       <c r="G38" s="43" t="s">
         <v>2</v>
       </c>
       <c r="H38" s="20"/>
       <c r="I38" s="3"/>
-      <c r="J38" s="64"/>
+      <c r="J38" s="58"/>
       <c r="K38" s="22" t="s">
         <v>2</v>
       </c>
       <c r="L38" s="21"/>
     </row>
     <row r="39" spans="2:12" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="63"/>
+      <c r="B39" s="57"/>
       <c r="C39" s="23" t="s">
         <v>3</v>
       </c>
       <c r="D39" s="20"/>
       <c r="E39" s="3"/>
-      <c r="F39" s="64"/>
+      <c r="F39" s="58"/>
       <c r="G39" s="44" t="s">
         <v>3</v>
       </c>
       <c r="H39" s="20"/>
       <c r="I39" s="3"/>
-      <c r="J39" s="64"/>
+      <c r="J39" s="58"/>
       <c r="K39" s="23" t="s">
         <v>3</v>
       </c>
       <c r="L39" s="21"/>
     </row>
-    <row r="40" spans="2:12" s="2" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:12" s="2" customFormat="1" ht="8.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="24"/>
       <c r="C40" s="25"/>
       <c r="D40" s="27"/>
@@ -2135,24 +2112,24 @@
       <c r="L40" s="28"/>
     </row>
     <row r="41" spans="2:12" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="63" t="s">
-        <v>15</v>
+      <c r="B41" s="57" t="s">
+        <v>17</v>
       </c>
       <c r="C41" s="19" t="s">
         <v>1</v>
       </c>
       <c r="D41" s="20"/>
       <c r="E41" s="3"/>
-      <c r="F41" s="64" t="s">
-        <v>23</v>
+      <c r="F41" s="58" t="s">
+        <v>25</v>
       </c>
       <c r="G41" s="19" t="s">
         <v>1</v>
       </c>
       <c r="H41" s="20"/>
       <c r="I41" s="3"/>
-      <c r="J41" s="64" t="s">
-        <v>40</v>
+      <c r="J41" s="58" t="s">
+        <v>42</v>
       </c>
       <c r="K41" s="19" t="s">
         <v>1</v>
@@ -2160,44 +2137,44 @@
       <c r="L41" s="28"/>
     </row>
     <row r="42" spans="2:12" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="63"/>
+      <c r="B42" s="57"/>
       <c r="C42" s="22" t="s">
         <v>2</v>
       </c>
       <c r="D42" s="20"/>
       <c r="E42" s="3"/>
-      <c r="F42" s="64"/>
+      <c r="F42" s="58"/>
       <c r="G42" s="43" t="s">
         <v>2</v>
       </c>
       <c r="H42" s="20"/>
       <c r="I42" s="3"/>
-      <c r="J42" s="64"/>
+      <c r="J42" s="58"/>
       <c r="K42" s="22" t="s">
         <v>2</v>
       </c>
       <c r="L42" s="21"/>
     </row>
     <row r="43" spans="2:12" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="63"/>
+      <c r="B43" s="57"/>
       <c r="C43" s="23" t="s">
         <v>3</v>
       </c>
       <c r="D43" s="20"/>
       <c r="E43" s="3"/>
-      <c r="F43" s="64"/>
+      <c r="F43" s="58"/>
       <c r="G43" s="44" t="s">
         <v>3</v>
       </c>
       <c r="H43" s="20"/>
       <c r="I43" s="3"/>
-      <c r="J43" s="64"/>
+      <c r="J43" s="58"/>
       <c r="K43" s="23" t="s">
         <v>3</v>
       </c>
       <c r="L43" s="21"/>
     </row>
-    <row r="44" spans="2:12" s="2" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:12" s="2" customFormat="1" ht="8.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="24"/>
       <c r="C44" s="27"/>
       <c r="D44" s="27"/>
@@ -2211,24 +2188,24 @@
       <c r="L44" s="28"/>
     </row>
     <row r="45" spans="2:12" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="63" t="s">
-        <v>16</v>
+      <c r="B45" s="57" t="s">
+        <v>18</v>
       </c>
       <c r="C45" s="19" t="s">
         <v>1</v>
       </c>
       <c r="D45" s="20"/>
       <c r="E45" s="3"/>
-      <c r="F45" s="64" t="s">
-        <v>24</v>
+      <c r="F45" s="58" t="s">
+        <v>26</v>
       </c>
       <c r="G45" s="19" t="s">
         <v>1</v>
       </c>
       <c r="H45" s="20"/>
       <c r="I45" s="3"/>
-      <c r="J45" s="64" t="s">
-        <v>41</v>
+      <c r="J45" s="58" t="s">
+        <v>43</v>
       </c>
       <c r="K45" s="19" t="s">
         <v>1</v>
@@ -2236,45 +2213,45 @@
       <c r="L45" s="28"/>
     </row>
     <row r="46" spans="2:12" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="63"/>
+      <c r="B46" s="57"/>
       <c r="C46" s="22" t="s">
         <v>2</v>
       </c>
       <c r="D46" s="20"/>
       <c r="E46" s="3"/>
-      <c r="F46" s="64"/>
+      <c r="F46" s="58"/>
       <c r="G46" s="43" t="s">
         <v>2</v>
       </c>
       <c r="H46" s="20"/>
       <c r="I46" s="3"/>
-      <c r="J46" s="64"/>
+      <c r="J46" s="58"/>
       <c r="K46" s="22" t="s">
         <v>2</v>
       </c>
       <c r="L46" s="21"/>
     </row>
     <row r="47" spans="2:12" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="63"/>
+      <c r="B47" s="57"/>
       <c r="C47" s="23" t="s">
         <v>3</v>
       </c>
       <c r="D47" s="20"/>
       <c r="E47" s="3"/>
-      <c r="F47" s="64"/>
+      <c r="F47" s="58"/>
       <c r="G47" s="44" t="s">
         <v>3</v>
       </c>
       <c r="H47" s="20"/>
       <c r="I47" s="3"/>
-      <c r="J47" s="64"/>
+      <c r="J47" s="58"/>
       <c r="K47" s="23" t="s">
         <v>3</v>
       </c>
       <c r="L47" s="21"/>
     </row>
     <row r="48" spans="2:12" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="49"/>
+      <c r="B48" s="76"/>
       <c r="C48" s="29"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -2284,10 +2261,10 @@
       <c r="I48" s="3"/>
       <c r="J48" s="30"/>
       <c r="K48" s="29"/>
-      <c r="L48" s="50"/>
+      <c r="L48" s="77"/>
     </row>
     <row r="49" spans="1:12" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="49"/>
+      <c r="B49" s="76"/>
       <c r="C49" s="29"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -2297,10 +2274,10 @@
       <c r="I49" s="3"/>
       <c r="J49" s="30"/>
       <c r="K49" s="29"/>
-      <c r="L49" s="50"/>
+      <c r="L49" s="77"/>
     </row>
     <row r="50" spans="1:12" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="49"/>
+      <c r="B50" s="76"/>
       <c r="C50" s="29"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -2310,24 +2287,24 @@
       <c r="I50" s="3"/>
       <c r="J50" s="30"/>
       <c r="K50" s="29"/>
-      <c r="L50" s="50"/>
-    </row>
-    <row r="51" spans="1:12" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="75" t="s">
-        <v>32</v>
-      </c>
-      <c r="C51" s="76"/>
-      <c r="D51" s="76"/>
-      <c r="E51" s="76"/>
-      <c r="F51" s="76"/>
-      <c r="G51" s="76"/>
-      <c r="H51" s="76"/>
-      <c r="I51" s="76"/>
-      <c r="J51" s="76"/>
-      <c r="K51" s="76"/>
-      <c r="L51" s="77"/>
-    </row>
-    <row r="52" spans="1:12" s="1" customFormat="1" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L50" s="77"/>
+    </row>
+    <row r="51" spans="1:12" ht="40.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="C51" s="60"/>
+      <c r="D51" s="60"/>
+      <c r="E51" s="60"/>
+      <c r="F51" s="60"/>
+      <c r="G51" s="60"/>
+      <c r="H51" s="60"/>
+      <c r="I51" s="60"/>
+      <c r="J51" s="60"/>
+      <c r="K51" s="60"/>
+      <c r="L51" s="61"/>
+    </row>
+    <row r="52" spans="1:12" s="1" customFormat="1" ht="15.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="31"/>
       <c r="B52" s="37"/>
       <c r="C52" s="33"/>
@@ -2343,24 +2320,24 @@
     </row>
     <row r="53" spans="1:12" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="31"/>
-      <c r="B53" s="63" t="s">
-        <v>45</v>
+      <c r="B53" s="57" t="s">
+        <v>47</v>
       </c>
       <c r="C53" s="19" t="s">
         <v>1</v>
       </c>
       <c r="D53" s="32"/>
       <c r="E53" s="33"/>
-      <c r="F53" s="64" t="s">
-        <v>43</v>
+      <c r="F53" s="58" t="s">
+        <v>45</v>
       </c>
       <c r="G53" s="19" t="s">
         <v>1</v>
       </c>
       <c r="H53" s="32"/>
       <c r="I53" s="33"/>
-      <c r="J53" s="64" t="s">
-        <v>31</v>
+      <c r="J53" s="58" t="s">
+        <v>33</v>
       </c>
       <c r="K53" s="19" t="s">
         <v>1</v>
@@ -2369,19 +2346,19 @@
     </row>
     <row r="54" spans="1:12" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="31"/>
-      <c r="B54" s="63"/>
+      <c r="B54" s="57"/>
       <c r="C54" s="22" t="s">
         <v>2</v>
       </c>
       <c r="D54" s="32"/>
       <c r="E54" s="33"/>
-      <c r="F54" s="64"/>
+      <c r="F54" s="58"/>
       <c r="G54" s="22" t="s">
         <v>2</v>
       </c>
       <c r="H54" s="32"/>
       <c r="I54" s="33"/>
-      <c r="J54" s="64"/>
+      <c r="J54" s="58"/>
       <c r="K54" s="22" t="s">
         <v>2</v>
       </c>
@@ -2389,19 +2366,19 @@
     </row>
     <row r="55" spans="1:12" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="31"/>
-      <c r="B55" s="63"/>
+      <c r="B55" s="57"/>
       <c r="C55" s="23" t="s">
         <v>3</v>
       </c>
       <c r="D55" s="35"/>
       <c r="E55" s="33"/>
-      <c r="F55" s="64"/>
+      <c r="F55" s="58"/>
       <c r="G55" s="23" t="s">
         <v>3</v>
       </c>
       <c r="H55" s="35"/>
       <c r="I55" s="33"/>
-      <c r="J55" s="64"/>
+      <c r="J55" s="58"/>
       <c r="K55" s="23" t="s">
         <v>3</v>
       </c>
@@ -2423,59 +2400,59 @@
     </row>
     <row r="57" spans="1:12" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="31"/>
-      <c r="B57" s="63" t="s">
-        <v>44</v>
+      <c r="B57" s="57" t="s">
+        <v>46</v>
       </c>
       <c r="C57" s="19" t="s">
         <v>1</v>
       </c>
       <c r="D57" s="32"/>
       <c r="E57" s="33"/>
-      <c r="F57" s="64" t="s">
-        <v>29</v>
+      <c r="F57" s="58" t="s">
+        <v>31</v>
       </c>
       <c r="G57" s="19" t="s">
         <v>1</v>
       </c>
       <c r="H57" s="32"/>
       <c r="I57" s="33"/>
-      <c r="J57" s="64"/>
+      <c r="J57" s="58"/>
       <c r="K57" s="19"/>
       <c r="L57" s="34"/>
     </row>
     <row r="58" spans="1:12" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="31"/>
-      <c r="B58" s="63"/>
+      <c r="B58" s="57"/>
       <c r="C58" s="22" t="s">
         <v>2</v>
       </c>
       <c r="D58" s="32"/>
       <c r="E58" s="33"/>
-      <c r="F58" s="64"/>
+      <c r="F58" s="58"/>
       <c r="G58" s="22" t="s">
         <v>2</v>
       </c>
       <c r="H58" s="32"/>
       <c r="I58" s="33"/>
-      <c r="J58" s="64"/>
+      <c r="J58" s="58"/>
       <c r="K58" s="22"/>
       <c r="L58" s="34"/>
     </row>
     <row r="59" spans="1:12" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="31"/>
-      <c r="B59" s="63"/>
+      <c r="B59" s="57"/>
       <c r="C59" s="23" t="s">
         <v>3</v>
       </c>
       <c r="D59" s="35"/>
       <c r="E59" s="33"/>
-      <c r="F59" s="64"/>
+      <c r="F59" s="58"/>
       <c r="G59" s="23" t="s">
         <v>3</v>
       </c>
       <c r="H59" s="35"/>
       <c r="I59" s="33"/>
-      <c r="J59" s="64"/>
+      <c r="J59" s="58"/>
       <c r="K59" s="23"/>
       <c r="L59" s="36"/>
     </row>
@@ -2495,64 +2472,64 @@
     </row>
     <row r="61" spans="1:12" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="31"/>
-      <c r="B61" s="63" t="s">
-        <v>42</v>
+      <c r="B61" s="57" t="s">
+        <v>44</v>
       </c>
       <c r="C61" s="19" t="s">
         <v>1</v>
       </c>
       <c r="D61" s="32"/>
       <c r="E61" s="33"/>
-      <c r="F61" s="64" t="s">
-        <v>30</v>
+      <c r="F61" s="58" t="s">
+        <v>32</v>
       </c>
       <c r="G61" s="19" t="s">
         <v>1</v>
       </c>
       <c r="H61" s="32"/>
       <c r="I61" s="33"/>
-      <c r="J61" s="64"/>
+      <c r="J61" s="58"/>
       <c r="K61" s="19"/>
       <c r="L61" s="34"/>
     </row>
     <row r="62" spans="1:12" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="31"/>
-      <c r="B62" s="63"/>
+      <c r="B62" s="57"/>
       <c r="C62" s="22" t="s">
         <v>2</v>
       </c>
       <c r="D62" s="32"/>
       <c r="E62" s="33"/>
-      <c r="F62" s="64"/>
+      <c r="F62" s="58"/>
       <c r="G62" s="22" t="s">
         <v>2</v>
       </c>
       <c r="H62" s="32"/>
       <c r="I62" s="33"/>
-      <c r="J62" s="64"/>
+      <c r="J62" s="58"/>
       <c r="K62" s="22"/>
       <c r="L62" s="34"/>
     </row>
     <row r="63" spans="1:12" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="31"/>
-      <c r="B63" s="63"/>
+      <c r="B63" s="57"/>
       <c r="C63" s="23" t="s">
         <v>3</v>
       </c>
       <c r="D63" s="35"/>
       <c r="E63" s="33"/>
-      <c r="F63" s="64"/>
+      <c r="F63" s="58"/>
       <c r="G63" s="23" t="s">
         <v>3</v>
       </c>
       <c r="H63" s="35"/>
       <c r="I63" s="33"/>
-      <c r="J63" s="64"/>
+      <c r="J63" s="58"/>
       <c r="K63" s="23"/>
       <c r="L63" s="36"/>
     </row>
     <row r="64" spans="1:12" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="49"/>
+      <c r="B64" s="76"/>
       <c r="C64" s="29"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -2562,10 +2539,10 @@
       <c r="I64" s="3"/>
       <c r="J64" s="30"/>
       <c r="K64" s="29"/>
-      <c r="L64" s="50"/>
+      <c r="L64" s="77"/>
     </row>
     <row r="65" spans="2:12" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="49"/>
+      <c r="B65" s="76"/>
       <c r="C65" s="29"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -2575,10 +2552,10 @@
       <c r="I65" s="3"/>
       <c r="J65" s="30"/>
       <c r="K65" s="29"/>
-      <c r="L65" s="50"/>
-    </row>
-    <row r="66" spans="2:12" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="49"/>
+      <c r="L65" s="77"/>
+    </row>
+    <row r="66" spans="2:12" s="2" customFormat="1" ht="15.95" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="76"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -2588,108 +2565,111 @@
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
-      <c r="L66" s="50"/>
+      <c r="L66" s="77"/>
     </row>
     <row r="67" spans="2:12" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="51" t="s">
+      <c r="B67" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C67" s="52"/>
-      <c r="D67" s="52"/>
-      <c r="E67" s="52"/>
-      <c r="F67" s="52"/>
-      <c r="G67" s="52"/>
-      <c r="H67" s="52"/>
-      <c r="I67" s="52"/>
-      <c r="J67" s="52"/>
-      <c r="K67" s="53">
+      <c r="C67" s="46"/>
+      <c r="D67" s="46"/>
+      <c r="E67" s="46"/>
+      <c r="F67" s="46"/>
+      <c r="G67" s="46"/>
+      <c r="H67" s="46"/>
+      <c r="I67" s="46"/>
+      <c r="J67" s="46"/>
+      <c r="K67" s="47">
         <f>SUM(L45,L41,L37,L33,L29,L25,H25,H29,H33,H37,H41,H45,D45,D41,D37,D33,D29,D25,L21,L17,L13,H13,H17,H21,D21,D17,D13,D53,H53,L53,D57,D61,H57,H61,L57,L61)</f>
         <v>0</v>
       </c>
-      <c r="L67" s="54"/>
+      <c r="L67" s="48"/>
     </row>
     <row r="68" spans="2:12" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="C68" s="56"/>
-      <c r="D68" s="56"/>
-      <c r="E68" s="56"/>
-      <c r="F68" s="56"/>
-      <c r="G68" s="56"/>
-      <c r="H68" s="56"/>
-      <c r="I68" s="56"/>
-      <c r="J68" s="56"/>
-      <c r="K68" s="57">
+      <c r="B68" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" s="50"/>
+      <c r="D68" s="50"/>
+      <c r="E68" s="50"/>
+      <c r="F68" s="50"/>
+      <c r="G68" s="50"/>
+      <c r="H68" s="50"/>
+      <c r="I68" s="50"/>
+      <c r="J68" s="50"/>
+      <c r="K68" s="51">
         <f>SUM(L46,L42,L38,L34,L30,L26,L22,H22,H26,H30,H34,H38,H42,H46,D46,D42,D38,D34,D30,D26,D22,L18,L14,H14,H18,D18,D14,D54,D58,D62,H54,H58,H62,L54,L58,L62)</f>
         <v>0</v>
       </c>
-      <c r="L68" s="58"/>
+      <c r="L68" s="52"/>
     </row>
     <row r="69" spans="2:12" s="1" customFormat="1" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="59" t="s">
-        <v>9</v>
-      </c>
-      <c r="C69" s="60"/>
-      <c r="D69" s="60"/>
-      <c r="E69" s="60"/>
-      <c r="F69" s="60"/>
-      <c r="G69" s="60"/>
-      <c r="H69" s="60"/>
-      <c r="I69" s="60"/>
-      <c r="J69" s="60"/>
-      <c r="K69" s="61">
+      <c r="B69" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" s="54"/>
+      <c r="D69" s="54"/>
+      <c r="E69" s="54"/>
+      <c r="F69" s="54"/>
+      <c r="G69" s="54"/>
+      <c r="H69" s="54"/>
+      <c r="I69" s="54"/>
+      <c r="J69" s="54"/>
+      <c r="K69" s="55">
         <f>SUM(D15,D19,D23,D27,D31,H15,H19,H23,H27,H31,L15,L19,L23,L27,L31,D35,D39,D43,D47,H35,H39,H43,H47,L35,L39,L43,L47,D55,D59,D63,H55,H59,H63,L55,L59,L63)</f>
         <v>0</v>
       </c>
-      <c r="L69" s="62"/>
+      <c r="L69" s="56"/>
     </row>
     <row r="70" spans="2:12" ht="11.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="2:12" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="2:12" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="2:12" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="2:12" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="2:12" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="2:12" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="2:12" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="2:12" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="2:12" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="2:12" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="2:12" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="2:12" x14ac:dyDescent="0.25"/>
+    <row r="81" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection password="C691" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="50">

--- a/modelos/Quadro Quantitativo de Inclusão - Modelo.xlsx
+++ b/modelos/Quadro Quantitativo de Inclusão - Modelo.xlsx
@@ -1,35 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Seduc-0584\dados\Divisão de Planejamento e Vagas\13-Quadros Geral de Salas\2025\QUADRO QUANTITATIVO DE INCLUSÃO - ESCOLAS\Enviar p as escolas 2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neto\Desktop\Projetos\Em uso\secretariapadin\modelos\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637F7D70-8AE2-4C92-8A90-8C87238A9E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20492" windowHeight="6826"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PADIN" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Fernanda Boscaine Armelin - RF: 48.804 - SEDUC</author>
   </authors>
   <commentList>
-    <comment ref="B4" authorId="0" shapeId="0">
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -53,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C8" authorId="0" shapeId="0">
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -77,7 +87,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K8" authorId="0" shapeId="0">
+    <comment ref="K8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -96,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="46">
   <si>
     <t>TOTAL DE ALUNOS DE INCLUSÃO</t>
   </si>
@@ -218,16 +228,10 @@
     <t>4-F</t>
   </si>
   <si>
-    <t>4-G</t>
-  </si>
-  <si>
     <t>5-E</t>
   </si>
   <si>
     <t>5-F</t>
-  </si>
-  <si>
-    <t>5-G</t>
   </si>
   <si>
     <t xml:space="preserve">EJA 7ª </t>
@@ -245,7 +249,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -834,90 +838,56 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -934,13 +904,47 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -976,7 +980,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1"/>
+        <xdr:cNvPr id="2" name="Imagem 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1020,7 +1030,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagem 12" descr="1.jpg"/>
+        <xdr:cNvPr id="3" name="Imagem 12" descr="1.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1080,13 +1096,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1306285</xdr:colOff>
+      <xdr:colOff>1277710</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1318846</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagem 3"/>
+        <xdr:cNvPr id="4" name="Imagem 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1380,62 +1402,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:R118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H63" sqref="H63"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.55" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.65" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.125" customWidth="1"/>
-    <col min="2" max="2" width="19.125" customWidth="1"/>
-    <col min="3" max="3" width="38.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.625" customWidth="1"/>
-    <col min="5" max="5" width="3.625" customWidth="1"/>
-    <col min="6" max="6" width="22.625" customWidth="1"/>
-    <col min="7" max="7" width="38.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.625" customWidth="1"/>
-    <col min="9" max="9" width="3.625" customWidth="1"/>
-    <col min="10" max="10" width="22.625" customWidth="1"/>
-    <col min="11" max="11" width="38.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.625" customWidth="1"/>
-    <col min="13" max="13" width="2.125" customWidth="1"/>
+    <col min="1" max="1" width="2.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" customWidth="1"/>
+    <col min="5" max="5" width="3.5703125" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" customWidth="1"/>
+    <col min="7" max="7" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" customWidth="1"/>
+    <col min="9" max="9" width="3.5703125" customWidth="1"/>
+    <col min="10" max="10" width="22.5703125" customWidth="1"/>
+    <col min="11" max="11" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5703125" customWidth="1"/>
+    <col min="13" max="13" width="2.140625" customWidth="1"/>
     <col min="14" max="18" width="0" hidden="1" customWidth="1"/>
     <col min="19" max="16384" width="9" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" s="4" customFormat="1" ht="109.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="62" t="s">
+    <row r="1" spans="2:12" s="4" customFormat="1" ht="109.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
     </row>
     <row r="2" spans="2:12" s="4" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
@@ -1451,32 +1473,32 @@
       <c r="L3" s="9"/>
     </row>
     <row r="4" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="66"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="59"/>
     </row>
     <row r="5" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="64"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="66"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="59"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="10"/>
@@ -1491,39 +1513,39 @@
       <c r="K6" s="11"/>
       <c r="L6" s="12"/>
     </row>
-    <row r="7" spans="2:12" ht="19.05" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B7" s="67"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="70" t="s">
+    <row r="7" spans="2:12" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="45"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="71"/>
-    </row>
-    <row r="8" spans="2:12" s="15" customFormat="1" ht="19.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="48"/>
+    </row>
+    <row r="8" spans="2:12" s="15" customFormat="1" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="72"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
       <c r="J8" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="K8" s="74" t="s">
+      <c r="K8" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="L8" s="75"/>
+      <c r="L8" s="65"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="40"/>
@@ -1551,20 +1573,20 @@
       <c r="K10" s="17"/>
       <c r="L10" s="18"/>
     </row>
-    <row r="11" spans="2:12" ht="40.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="59" t="s">
+    <row r="11" spans="2:12" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="60"/>
-      <c r="L11" s="61"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="53"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="16"/>
@@ -1580,7 +1602,7 @@
       <c r="L12" s="18"/>
     </row>
     <row r="13" spans="2:12" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="57" t="s">
+      <c r="B13" s="54" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="19" t="s">
@@ -1588,7 +1610,7 @@
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="58" t="s">
+      <c r="F13" s="55" t="s">
         <v>19</v>
       </c>
       <c r="G13" s="19" t="s">
@@ -1596,7 +1618,7 @@
       </c>
       <c r="H13" s="20"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="58" t="s">
+      <c r="J13" s="55" t="s">
         <v>39</v>
       </c>
       <c r="K13" s="19" t="s">
@@ -1605,44 +1627,44 @@
       <c r="L13" s="21"/>
     </row>
     <row r="14" spans="2:12" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="57"/>
+      <c r="B14" s="54"/>
       <c r="C14" s="22" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="58"/>
+      <c r="F14" s="55"/>
       <c r="G14" s="43" t="s">
         <v>2</v>
       </c>
       <c r="H14" s="20"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="58"/>
+      <c r="J14" s="55"/>
       <c r="K14" s="22" t="s">
         <v>2</v>
       </c>
       <c r="L14" s="21"/>
     </row>
     <row r="15" spans="2:12" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="57"/>
+      <c r="B15" s="54"/>
       <c r="C15" s="23" t="s">
         <v>3</v>
       </c>
       <c r="D15" s="20"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="58"/>
+      <c r="F15" s="55"/>
       <c r="G15" s="44" t="s">
         <v>3</v>
       </c>
       <c r="H15" s="20"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="58"/>
+      <c r="J15" s="55"/>
       <c r="K15" s="23" t="s">
         <v>3</v>
       </c>
       <c r="L15" s="21"/>
     </row>
-    <row r="16" spans="2:12" s="2" customFormat="1" ht="7.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" s="2" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="24"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
@@ -1656,7 +1678,7 @@
       <c r="L16" s="28"/>
     </row>
     <row r="17" spans="2:12" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="57" t="s">
+      <c r="B17" s="54" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="19" t="s">
@@ -1664,7 +1686,7 @@
       </c>
       <c r="D17" s="20"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="58" t="s">
+      <c r="F17" s="55" t="s">
         <v>20</v>
       </c>
       <c r="G17" s="19" t="s">
@@ -1672,8 +1694,8 @@
       </c>
       <c r="H17" s="20"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="58" t="s">
-        <v>40</v>
+      <c r="J17" s="55" t="s">
+        <v>27</v>
       </c>
       <c r="K17" s="19" t="s">
         <v>1</v>
@@ -1681,44 +1703,44 @@
       <c r="L17" s="21"/>
     </row>
     <row r="18" spans="2:12" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="57"/>
+      <c r="B18" s="54"/>
       <c r="C18" s="22" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="20"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="58"/>
+      <c r="F18" s="55"/>
       <c r="G18" s="43" t="s">
         <v>2</v>
       </c>
       <c r="H18" s="20"/>
       <c r="I18" s="3"/>
-      <c r="J18" s="58"/>
+      <c r="J18" s="55"/>
       <c r="K18" s="22" t="s">
         <v>2</v>
       </c>
       <c r="L18" s="21"/>
     </row>
     <row r="19" spans="2:12" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="57"/>
+      <c r="B19" s="54"/>
       <c r="C19" s="23" t="s">
         <v>3</v>
       </c>
       <c r="D19" s="20"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="58"/>
+      <c r="F19" s="55"/>
       <c r="G19" s="44" t="s">
         <v>3</v>
       </c>
       <c r="H19" s="20"/>
       <c r="I19" s="3"/>
-      <c r="J19" s="58"/>
+      <c r="J19" s="55"/>
       <c r="K19" s="23" t="s">
         <v>3</v>
       </c>
       <c r="L19" s="21"/>
     </row>
-    <row r="20" spans="2:12" s="2" customFormat="1" ht="8.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" s="2" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="24"/>
       <c r="C20" s="27"/>
       <c r="D20" s="27"/>
@@ -1732,7 +1754,7 @@
       <c r="L20" s="28"/>
     </row>
     <row r="21" spans="2:12" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="57" t="s">
+      <c r="B21" s="54" t="s">
         <v>14</v>
       </c>
       <c r="C21" s="19" t="s">
@@ -1740,7 +1762,7 @@
       </c>
       <c r="D21" s="20"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="58" t="s">
+      <c r="F21" s="55" t="s">
         <v>21</v>
       </c>
       <c r="G21" s="19" t="s">
@@ -1748,8 +1770,8 @@
       </c>
       <c r="H21" s="20"/>
       <c r="I21" s="3"/>
-      <c r="J21" s="58" t="s">
-        <v>27</v>
+      <c r="J21" s="55" t="s">
+        <v>28</v>
       </c>
       <c r="K21" s="19" t="s">
         <v>1</v>
@@ -1757,44 +1779,44 @@
       <c r="L21" s="21"/>
     </row>
     <row r="22" spans="2:12" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="57"/>
+      <c r="B22" s="54"/>
       <c r="C22" s="22" t="s">
         <v>2</v>
       </c>
       <c r="D22" s="20"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="58"/>
+      <c r="F22" s="55"/>
       <c r="G22" s="43" t="s">
         <v>2</v>
       </c>
       <c r="H22" s="20"/>
       <c r="I22" s="3"/>
-      <c r="J22" s="58"/>
+      <c r="J22" s="55"/>
       <c r="K22" s="22" t="s">
         <v>2</v>
       </c>
       <c r="L22" s="21"/>
     </row>
     <row r="23" spans="2:12" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="57"/>
+      <c r="B23" s="54"/>
       <c r="C23" s="23" t="s">
         <v>3</v>
       </c>
       <c r="D23" s="20"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="58"/>
+      <c r="F23" s="55"/>
       <c r="G23" s="44" t="s">
         <v>3</v>
       </c>
       <c r="H23" s="20"/>
       <c r="I23" s="3"/>
-      <c r="J23" s="58"/>
+      <c r="J23" s="55"/>
       <c r="K23" s="23" t="s">
         <v>3</v>
       </c>
       <c r="L23" s="21"/>
     </row>
-    <row r="24" spans="2:12" s="2" customFormat="1" ht="8.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" s="2" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="24"/>
       <c r="C24" s="25"/>
       <c r="D24" s="27"/>
@@ -1808,7 +1830,7 @@
       <c r="L24" s="28"/>
     </row>
     <row r="25" spans="2:12" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="57" t="s">
+      <c r="B25" s="54" t="s">
         <v>15</v>
       </c>
       <c r="C25" s="19" t="s">
@@ -1816,7 +1838,7 @@
       </c>
       <c r="D25" s="20"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="58" t="s">
+      <c r="F25" s="55" t="s">
         <v>38</v>
       </c>
       <c r="G25" s="19" t="s">
@@ -1824,8 +1846,8 @@
       </c>
       <c r="H25" s="20"/>
       <c r="I25" s="3"/>
-      <c r="J25" s="58" t="s">
-        <v>28</v>
+      <c r="J25" s="55" t="s">
+        <v>29</v>
       </c>
       <c r="K25" s="19" t="s">
         <v>1</v>
@@ -1833,44 +1855,44 @@
       <c r="L25" s="21"/>
     </row>
     <row r="26" spans="2:12" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="57"/>
+      <c r="B26" s="54"/>
       <c r="C26" s="22" t="s">
         <v>2</v>
       </c>
       <c r="D26" s="20"/>
       <c r="E26" s="3"/>
-      <c r="F26" s="58"/>
+      <c r="F26" s="55"/>
       <c r="G26" s="43" t="s">
         <v>2</v>
       </c>
       <c r="H26" s="20"/>
       <c r="I26" s="3"/>
-      <c r="J26" s="58"/>
+      <c r="J26" s="55"/>
       <c r="K26" s="22" t="s">
         <v>2</v>
       </c>
       <c r="L26" s="21"/>
     </row>
     <row r="27" spans="2:12" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="57"/>
+      <c r="B27" s="54"/>
       <c r="C27" s="23" t="s">
         <v>3</v>
       </c>
       <c r="D27" s="20"/>
       <c r="E27" s="3"/>
-      <c r="F27" s="58"/>
+      <c r="F27" s="55"/>
       <c r="G27" s="44" t="s">
         <v>3</v>
       </c>
       <c r="H27" s="20"/>
       <c r="I27" s="3"/>
-      <c r="J27" s="58"/>
+      <c r="J27" s="55"/>
       <c r="K27" s="23" t="s">
         <v>3</v>
       </c>
       <c r="L27" s="21"/>
     </row>
-    <row r="28" spans="2:12" s="2" customFormat="1" ht="8.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" s="2" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="24"/>
       <c r="C28" s="27"/>
       <c r="D28" s="27"/>
@@ -1884,7 +1906,7 @@
       <c r="L28" s="28"/>
     </row>
     <row r="29" spans="2:12" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="57" t="s">
+      <c r="B29" s="54" t="s">
         <v>16</v>
       </c>
       <c r="C29" s="19" t="s">
@@ -1892,7 +1914,7 @@
       </c>
       <c r="D29" s="20"/>
       <c r="E29" s="3"/>
-      <c r="F29" s="58" t="s">
+      <c r="F29" s="55" t="s">
         <v>22</v>
       </c>
       <c r="G29" s="19" t="s">
@@ -1900,8 +1922,8 @@
       </c>
       <c r="H29" s="20"/>
       <c r="I29" s="3"/>
-      <c r="J29" s="58" t="s">
-        <v>29</v>
+      <c r="J29" s="55" t="s">
+        <v>30</v>
       </c>
       <c r="K29" s="19" t="s">
         <v>1</v>
@@ -1909,44 +1931,44 @@
       <c r="L29" s="28"/>
     </row>
     <row r="30" spans="2:12" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="57"/>
+      <c r="B30" s="54"/>
       <c r="C30" s="22" t="s">
         <v>2</v>
       </c>
       <c r="D30" s="20"/>
       <c r="E30" s="3"/>
-      <c r="F30" s="58"/>
+      <c r="F30" s="55"/>
       <c r="G30" s="43" t="s">
         <v>2</v>
       </c>
       <c r="H30" s="20"/>
       <c r="I30" s="3"/>
-      <c r="J30" s="58"/>
+      <c r="J30" s="55"/>
       <c r="K30" s="22" t="s">
         <v>2</v>
       </c>
       <c r="L30" s="21"/>
     </row>
     <row r="31" spans="2:12" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="57"/>
+      <c r="B31" s="54"/>
       <c r="C31" s="23" t="s">
         <v>3</v>
       </c>
       <c r="D31" s="20"/>
       <c r="E31" s="3"/>
-      <c r="F31" s="58"/>
+      <c r="F31" s="55"/>
       <c r="G31" s="44" t="s">
         <v>3</v>
       </c>
       <c r="H31" s="20"/>
       <c r="I31" s="3"/>
-      <c r="J31" s="58"/>
+      <c r="J31" s="55"/>
       <c r="K31" s="23" t="s">
         <v>3</v>
       </c>
       <c r="L31" s="21"/>
     </row>
-    <row r="32" spans="2:12" s="2" customFormat="1" ht="8.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" s="2" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="24"/>
       <c r="C32" s="25"/>
       <c r="D32" s="27"/>
@@ -1960,7 +1982,7 @@
       <c r="L32" s="28"/>
     </row>
     <row r="33" spans="2:12" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="57" t="s">
+      <c r="B33" s="54" t="s">
         <v>36</v>
       </c>
       <c r="C33" s="19" t="s">
@@ -1968,7 +1990,7 @@
       </c>
       <c r="D33" s="20"/>
       <c r="E33" s="3"/>
-      <c r="F33" s="58" t="s">
+      <c r="F33" s="55" t="s">
         <v>23</v>
       </c>
       <c r="G33" s="19" t="s">
@@ -1976,8 +1998,8 @@
       </c>
       <c r="H33" s="20"/>
       <c r="I33" s="3"/>
-      <c r="J33" s="58" t="s">
-        <v>30</v>
+      <c r="J33" s="55" t="s">
+        <v>40</v>
       </c>
       <c r="K33" s="19" t="s">
         <v>1</v>
@@ -1985,44 +2007,44 @@
       <c r="L33" s="28"/>
     </row>
     <row r="34" spans="2:12" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="57"/>
+      <c r="B34" s="54"/>
       <c r="C34" s="22" t="s">
         <v>2</v>
       </c>
       <c r="D34" s="20"/>
       <c r="E34" s="3"/>
-      <c r="F34" s="58"/>
+      <c r="F34" s="55"/>
       <c r="G34" s="43" t="s">
         <v>2</v>
       </c>
       <c r="H34" s="20"/>
       <c r="I34" s="3"/>
-      <c r="J34" s="58"/>
+      <c r="J34" s="55"/>
       <c r="K34" s="22" t="s">
         <v>2</v>
       </c>
       <c r="L34" s="21"/>
     </row>
     <row r="35" spans="2:12" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="57"/>
+      <c r="B35" s="54"/>
       <c r="C35" s="23" t="s">
         <v>3</v>
       </c>
       <c r="D35" s="20"/>
       <c r="E35" s="3"/>
-      <c r="F35" s="58"/>
+      <c r="F35" s="55"/>
       <c r="G35" s="44" t="s">
         <v>3</v>
       </c>
       <c r="H35" s="20"/>
       <c r="I35" s="3"/>
-      <c r="J35" s="58"/>
+      <c r="J35" s="55"/>
       <c r="K35" s="23" t="s">
         <v>3</v>
       </c>
       <c r="L35" s="21"/>
     </row>
-    <row r="36" spans="2:12" s="2" customFormat="1" ht="8.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:12" s="2" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="24"/>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -2036,7 +2058,7 @@
       <c r="L36" s="28"/>
     </row>
     <row r="37" spans="2:12" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="57" t="s">
+      <c r="B37" s="54" t="s">
         <v>37</v>
       </c>
       <c r="C37" s="19" t="s">
@@ -2044,7 +2066,7 @@
       </c>
       <c r="D37" s="20"/>
       <c r="E37" s="3"/>
-      <c r="F37" s="58" t="s">
+      <c r="F37" s="55" t="s">
         <v>24</v>
       </c>
       <c r="G37" s="19" t="s">
@@ -2052,7 +2074,7 @@
       </c>
       <c r="H37" s="20"/>
       <c r="I37" s="3"/>
-      <c r="J37" s="58" t="s">
+      <c r="J37" s="55" t="s">
         <v>41</v>
       </c>
       <c r="K37" s="19" t="s">
@@ -2061,44 +2083,44 @@
       <c r="L37" s="28"/>
     </row>
     <row r="38" spans="2:12" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="57"/>
+      <c r="B38" s="54"/>
       <c r="C38" s="22" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="20"/>
       <c r="E38" s="3"/>
-      <c r="F38" s="58"/>
+      <c r="F38" s="55"/>
       <c r="G38" s="43" t="s">
         <v>2</v>
       </c>
       <c r="H38" s="20"/>
       <c r="I38" s="3"/>
-      <c r="J38" s="58"/>
+      <c r="J38" s="55"/>
       <c r="K38" s="22" t="s">
         <v>2</v>
       </c>
       <c r="L38" s="21"/>
     </row>
     <row r="39" spans="2:12" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="57"/>
+      <c r="B39" s="54"/>
       <c r="C39" s="23" t="s">
         <v>3</v>
       </c>
       <c r="D39" s="20"/>
       <c r="E39" s="3"/>
-      <c r="F39" s="58"/>
+      <c r="F39" s="55"/>
       <c r="G39" s="44" t="s">
         <v>3</v>
       </c>
       <c r="H39" s="20"/>
       <c r="I39" s="3"/>
-      <c r="J39" s="58"/>
+      <c r="J39" s="55"/>
       <c r="K39" s="23" t="s">
         <v>3</v>
       </c>
       <c r="L39" s="21"/>
     </row>
-    <row r="40" spans="2:12" s="2" customFormat="1" ht="8.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:12" s="2" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="24"/>
       <c r="C40" s="25"/>
       <c r="D40" s="27"/>
@@ -2112,7 +2134,7 @@
       <c r="L40" s="28"/>
     </row>
     <row r="41" spans="2:12" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="57" t="s">
+      <c r="B41" s="54" t="s">
         <v>17</v>
       </c>
       <c r="C41" s="19" t="s">
@@ -2120,7 +2142,7 @@
       </c>
       <c r="D41" s="20"/>
       <c r="E41" s="3"/>
-      <c r="F41" s="58" t="s">
+      <c r="F41" s="55" t="s">
         <v>25</v>
       </c>
       <c r="G41" s="19" t="s">
@@ -2128,53 +2150,51 @@
       </c>
       <c r="H41" s="20"/>
       <c r="I41" s="3"/>
-      <c r="J41" s="58" t="s">
-        <v>42</v>
-      </c>
+      <c r="J41" s="55"/>
       <c r="K41" s="19" t="s">
         <v>1</v>
       </c>
       <c r="L41" s="28"/>
     </row>
     <row r="42" spans="2:12" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="57"/>
+      <c r="B42" s="54"/>
       <c r="C42" s="22" t="s">
         <v>2</v>
       </c>
       <c r="D42" s="20"/>
       <c r="E42" s="3"/>
-      <c r="F42" s="58"/>
+      <c r="F42" s="55"/>
       <c r="G42" s="43" t="s">
         <v>2</v>
       </c>
       <c r="H42" s="20"/>
       <c r="I42" s="3"/>
-      <c r="J42" s="58"/>
+      <c r="J42" s="55"/>
       <c r="K42" s="22" t="s">
         <v>2</v>
       </c>
       <c r="L42" s="21"/>
     </row>
     <row r="43" spans="2:12" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="57"/>
+      <c r="B43" s="54"/>
       <c r="C43" s="23" t="s">
         <v>3</v>
       </c>
       <c r="D43" s="20"/>
       <c r="E43" s="3"/>
-      <c r="F43" s="58"/>
+      <c r="F43" s="55"/>
       <c r="G43" s="44" t="s">
         <v>3</v>
       </c>
       <c r="H43" s="20"/>
       <c r="I43" s="3"/>
-      <c r="J43" s="58"/>
+      <c r="J43" s="55"/>
       <c r="K43" s="23" t="s">
         <v>3</v>
       </c>
       <c r="L43" s="21"/>
     </row>
-    <row r="44" spans="2:12" s="2" customFormat="1" ht="8.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:12" s="2" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="24"/>
       <c r="C44" s="27"/>
       <c r="D44" s="27"/>
@@ -2188,7 +2208,7 @@
       <c r="L44" s="28"/>
     </row>
     <row r="45" spans="2:12" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="57" t="s">
+      <c r="B45" s="54" t="s">
         <v>18</v>
       </c>
       <c r="C45" s="19" t="s">
@@ -2196,7 +2216,7 @@
       </c>
       <c r="D45" s="20"/>
       <c r="E45" s="3"/>
-      <c r="F45" s="58" t="s">
+      <c r="F45" s="55" t="s">
         <v>26</v>
       </c>
       <c r="G45" s="19" t="s">
@@ -2204,54 +2224,52 @@
       </c>
       <c r="H45" s="20"/>
       <c r="I45" s="3"/>
-      <c r="J45" s="58" t="s">
-        <v>43</v>
-      </c>
+      <c r="J45" s="55"/>
       <c r="K45" s="19" t="s">
         <v>1</v>
       </c>
       <c r="L45" s="28"/>
     </row>
     <row r="46" spans="2:12" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="57"/>
+      <c r="B46" s="54"/>
       <c r="C46" s="22" t="s">
         <v>2</v>
       </c>
       <c r="D46" s="20"/>
       <c r="E46" s="3"/>
-      <c r="F46" s="58"/>
+      <c r="F46" s="55"/>
       <c r="G46" s="43" t="s">
         <v>2</v>
       </c>
       <c r="H46" s="20"/>
       <c r="I46" s="3"/>
-      <c r="J46" s="58"/>
+      <c r="J46" s="55"/>
       <c r="K46" s="22" t="s">
         <v>2</v>
       </c>
       <c r="L46" s="21"/>
     </row>
     <row r="47" spans="2:12" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="57"/>
+      <c r="B47" s="54"/>
       <c r="C47" s="23" t="s">
         <v>3</v>
       </c>
       <c r="D47" s="20"/>
       <c r="E47" s="3"/>
-      <c r="F47" s="58"/>
+      <c r="F47" s="55"/>
       <c r="G47" s="44" t="s">
         <v>3</v>
       </c>
       <c r="H47" s="20"/>
       <c r="I47" s="3"/>
-      <c r="J47" s="58"/>
+      <c r="J47" s="55"/>
       <c r="K47" s="23" t="s">
         <v>3</v>
       </c>
       <c r="L47" s="21"/>
     </row>
     <row r="48" spans="2:12" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="76"/>
+      <c r="B48" s="49"/>
       <c r="C48" s="29"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -2261,10 +2279,10 @@
       <c r="I48" s="3"/>
       <c r="J48" s="30"/>
       <c r="K48" s="29"/>
-      <c r="L48" s="77"/>
+      <c r="L48" s="50"/>
     </row>
     <row r="49" spans="1:12" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="76"/>
+      <c r="B49" s="49"/>
       <c r="C49" s="29"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -2274,10 +2292,10 @@
       <c r="I49" s="3"/>
       <c r="J49" s="30"/>
       <c r="K49" s="29"/>
-      <c r="L49" s="77"/>
+      <c r="L49" s="50"/>
     </row>
     <row r="50" spans="1:12" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="76"/>
+      <c r="B50" s="49"/>
       <c r="C50" s="29"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -2287,24 +2305,24 @@
       <c r="I50" s="3"/>
       <c r="J50" s="30"/>
       <c r="K50" s="29"/>
-      <c r="L50" s="77"/>
-    </row>
-    <row r="51" spans="1:12" ht="40.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="59" t="s">
+      <c r="L50" s="50"/>
+    </row>
+    <row r="51" spans="1:12" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="C51" s="60"/>
-      <c r="D51" s="60"/>
-      <c r="E51" s="60"/>
-      <c r="F51" s="60"/>
-      <c r="G51" s="60"/>
-      <c r="H51" s="60"/>
-      <c r="I51" s="60"/>
-      <c r="J51" s="60"/>
-      <c r="K51" s="60"/>
-      <c r="L51" s="61"/>
-    </row>
-    <row r="52" spans="1:12" s="1" customFormat="1" ht="15.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C51" s="52"/>
+      <c r="D51" s="52"/>
+      <c r="E51" s="52"/>
+      <c r="F51" s="52"/>
+      <c r="G51" s="52"/>
+      <c r="H51" s="52"/>
+      <c r="I51" s="52"/>
+      <c r="J51" s="52"/>
+      <c r="K51" s="52"/>
+      <c r="L51" s="53"/>
+    </row>
+    <row r="52" spans="1:12" s="1" customFormat="1" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="31"/>
       <c r="B52" s="37"/>
       <c r="C52" s="33"/>
@@ -2320,23 +2338,23 @@
     </row>
     <row r="53" spans="1:12" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="31"/>
-      <c r="B53" s="57" t="s">
-        <v>47</v>
+      <c r="B53" s="54" t="s">
+        <v>45</v>
       </c>
       <c r="C53" s="19" t="s">
         <v>1</v>
       </c>
       <c r="D53" s="32"/>
       <c r="E53" s="33"/>
-      <c r="F53" s="58" t="s">
-        <v>45</v>
+      <c r="F53" s="55" t="s">
+        <v>43</v>
       </c>
       <c r="G53" s="19" t="s">
         <v>1</v>
       </c>
       <c r="H53" s="32"/>
       <c r="I53" s="33"/>
-      <c r="J53" s="58" t="s">
+      <c r="J53" s="55" t="s">
         <v>33</v>
       </c>
       <c r="K53" s="19" t="s">
@@ -2346,19 +2364,19 @@
     </row>
     <row r="54" spans="1:12" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="31"/>
-      <c r="B54" s="57"/>
+      <c r="B54" s="54"/>
       <c r="C54" s="22" t="s">
         <v>2</v>
       </c>
       <c r="D54" s="32"/>
       <c r="E54" s="33"/>
-      <c r="F54" s="58"/>
+      <c r="F54" s="55"/>
       <c r="G54" s="22" t="s">
         <v>2</v>
       </c>
       <c r="H54" s="32"/>
       <c r="I54" s="33"/>
-      <c r="J54" s="58"/>
+      <c r="J54" s="55"/>
       <c r="K54" s="22" t="s">
         <v>2</v>
       </c>
@@ -2366,19 +2384,19 @@
     </row>
     <row r="55" spans="1:12" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="31"/>
-      <c r="B55" s="57"/>
+      <c r="B55" s="54"/>
       <c r="C55" s="23" t="s">
         <v>3</v>
       </c>
       <c r="D55" s="35"/>
       <c r="E55" s="33"/>
-      <c r="F55" s="58"/>
+      <c r="F55" s="55"/>
       <c r="G55" s="23" t="s">
         <v>3</v>
       </c>
       <c r="H55" s="35"/>
       <c r="I55" s="33"/>
-      <c r="J55" s="58"/>
+      <c r="J55" s="55"/>
       <c r="K55" s="23" t="s">
         <v>3</v>
       </c>
@@ -2400,15 +2418,15 @@
     </row>
     <row r="57" spans="1:12" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="31"/>
-      <c r="B57" s="57" t="s">
-        <v>46</v>
+      <c r="B57" s="54" t="s">
+        <v>44</v>
       </c>
       <c r="C57" s="19" t="s">
         <v>1</v>
       </c>
       <c r="D57" s="32"/>
       <c r="E57" s="33"/>
-      <c r="F57" s="58" t="s">
+      <c r="F57" s="55" t="s">
         <v>31</v>
       </c>
       <c r="G57" s="19" t="s">
@@ -2416,43 +2434,43 @@
       </c>
       <c r="H57" s="32"/>
       <c r="I57" s="33"/>
-      <c r="J57" s="58"/>
+      <c r="J57" s="55"/>
       <c r="K57" s="19"/>
       <c r="L57" s="34"/>
     </row>
     <row r="58" spans="1:12" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="31"/>
-      <c r="B58" s="57"/>
+      <c r="B58" s="54"/>
       <c r="C58" s="22" t="s">
         <v>2</v>
       </c>
       <c r="D58" s="32"/>
       <c r="E58" s="33"/>
-      <c r="F58" s="58"/>
+      <c r="F58" s="55"/>
       <c r="G58" s="22" t="s">
         <v>2</v>
       </c>
       <c r="H58" s="32"/>
       <c r="I58" s="33"/>
-      <c r="J58" s="58"/>
+      <c r="J58" s="55"/>
       <c r="K58" s="22"/>
       <c r="L58" s="34"/>
     </row>
     <row r="59" spans="1:12" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="31"/>
-      <c r="B59" s="57"/>
+      <c r="B59" s="54"/>
       <c r="C59" s="23" t="s">
         <v>3</v>
       </c>
       <c r="D59" s="35"/>
       <c r="E59" s="33"/>
-      <c r="F59" s="58"/>
+      <c r="F59" s="55"/>
       <c r="G59" s="23" t="s">
         <v>3</v>
       </c>
       <c r="H59" s="35"/>
       <c r="I59" s="33"/>
-      <c r="J59" s="58"/>
+      <c r="J59" s="55"/>
       <c r="K59" s="23"/>
       <c r="L59" s="36"/>
     </row>
@@ -2472,15 +2490,15 @@
     </row>
     <row r="61" spans="1:12" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="31"/>
-      <c r="B61" s="57" t="s">
-        <v>44</v>
+      <c r="B61" s="54" t="s">
+        <v>42</v>
       </c>
       <c r="C61" s="19" t="s">
         <v>1</v>
       </c>
       <c r="D61" s="32"/>
       <c r="E61" s="33"/>
-      <c r="F61" s="58" t="s">
+      <c r="F61" s="55" t="s">
         <v>32</v>
       </c>
       <c r="G61" s="19" t="s">
@@ -2488,48 +2506,48 @@
       </c>
       <c r="H61" s="32"/>
       <c r="I61" s="33"/>
-      <c r="J61" s="58"/>
+      <c r="J61" s="55"/>
       <c r="K61" s="19"/>
       <c r="L61" s="34"/>
     </row>
     <row r="62" spans="1:12" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="31"/>
-      <c r="B62" s="57"/>
+      <c r="B62" s="54"/>
       <c r="C62" s="22" t="s">
         <v>2</v>
       </c>
       <c r="D62" s="32"/>
       <c r="E62" s="33"/>
-      <c r="F62" s="58"/>
+      <c r="F62" s="55"/>
       <c r="G62" s="22" t="s">
         <v>2</v>
       </c>
       <c r="H62" s="32"/>
       <c r="I62" s="33"/>
-      <c r="J62" s="58"/>
+      <c r="J62" s="55"/>
       <c r="K62" s="22"/>
       <c r="L62" s="34"/>
     </row>
     <row r="63" spans="1:12" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="31"/>
-      <c r="B63" s="57"/>
+      <c r="B63" s="54"/>
       <c r="C63" s="23" t="s">
         <v>3</v>
       </c>
       <c r="D63" s="35"/>
       <c r="E63" s="33"/>
-      <c r="F63" s="58"/>
+      <c r="F63" s="55"/>
       <c r="G63" s="23" t="s">
         <v>3</v>
       </c>
       <c r="H63" s="35"/>
       <c r="I63" s="33"/>
-      <c r="J63" s="58"/>
+      <c r="J63" s="55"/>
       <c r="K63" s="23"/>
       <c r="L63" s="36"/>
     </row>
     <row r="64" spans="1:12" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="76"/>
+      <c r="B64" s="49"/>
       <c r="C64" s="29"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -2539,10 +2557,10 @@
       <c r="I64" s="3"/>
       <c r="J64" s="30"/>
       <c r="K64" s="29"/>
-      <c r="L64" s="77"/>
+      <c r="L64" s="50"/>
     </row>
     <row r="65" spans="2:12" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="76"/>
+      <c r="B65" s="49"/>
       <c r="C65" s="29"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -2552,10 +2570,10 @@
       <c r="I65" s="3"/>
       <c r="J65" s="30"/>
       <c r="K65" s="29"/>
-      <c r="L65" s="77"/>
-    </row>
-    <row r="66" spans="2:12" s="2" customFormat="1" ht="15.95" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="76"/>
+      <c r="L65" s="50"/>
+    </row>
+    <row r="66" spans="2:12" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="49"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -2565,114 +2583,145 @@
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
-      <c r="L66" s="77"/>
+      <c r="L66" s="50"/>
     </row>
     <row r="67" spans="2:12" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="45" t="s">
+      <c r="B67" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="C67" s="46"/>
-      <c r="D67" s="46"/>
-      <c r="E67" s="46"/>
-      <c r="F67" s="46"/>
-      <c r="G67" s="46"/>
-      <c r="H67" s="46"/>
-      <c r="I67" s="46"/>
-      <c r="J67" s="46"/>
-      <c r="K67" s="47">
+      <c r="C67" s="67"/>
+      <c r="D67" s="67"/>
+      <c r="E67" s="67"/>
+      <c r="F67" s="67"/>
+      <c r="G67" s="67"/>
+      <c r="H67" s="67"/>
+      <c r="I67" s="67"/>
+      <c r="J67" s="67"/>
+      <c r="K67" s="68">
         <f>SUM(L45,L41,L37,L33,L29,L25,H25,H29,H33,H37,H41,H45,D45,D41,D37,D33,D29,D25,L21,L17,L13,H13,H17,H21,D21,D17,D13,D53,H53,L53,D57,D61,H57,H61,L57,L61)</f>
         <v>0</v>
       </c>
-      <c r="L67" s="48"/>
+      <c r="L67" s="69"/>
     </row>
     <row r="68" spans="2:12" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="49" t="s">
+      <c r="B68" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C68" s="50"/>
-      <c r="D68" s="50"/>
-      <c r="E68" s="50"/>
-      <c r="F68" s="50"/>
-      <c r="G68" s="50"/>
-      <c r="H68" s="50"/>
-      <c r="I68" s="50"/>
-      <c r="J68" s="50"/>
-      <c r="K68" s="51">
+      <c r="C68" s="71"/>
+      <c r="D68" s="71"/>
+      <c r="E68" s="71"/>
+      <c r="F68" s="71"/>
+      <c r="G68" s="71"/>
+      <c r="H68" s="71"/>
+      <c r="I68" s="71"/>
+      <c r="J68" s="71"/>
+      <c r="K68" s="72">
         <f>SUM(L46,L42,L38,L34,L30,L26,L22,H22,H26,H30,H34,H38,H42,H46,D46,D42,D38,D34,D30,D26,D22,L18,L14,H14,H18,D18,D14,D54,D58,D62,H54,H58,H62,L54,L58,L62)</f>
         <v>0</v>
       </c>
-      <c r="L68" s="52"/>
+      <c r="L68" s="73"/>
     </row>
     <row r="69" spans="2:12" s="1" customFormat="1" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="53" t="s">
+      <c r="B69" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="C69" s="54"/>
-      <c r="D69" s="54"/>
-      <c r="E69" s="54"/>
-      <c r="F69" s="54"/>
-      <c r="G69" s="54"/>
-      <c r="H69" s="54"/>
-      <c r="I69" s="54"/>
-      <c r="J69" s="54"/>
-      <c r="K69" s="55">
+      <c r="C69" s="75"/>
+      <c r="D69" s="75"/>
+      <c r="E69" s="75"/>
+      <c r="F69" s="75"/>
+      <c r="G69" s="75"/>
+      <c r="H69" s="75"/>
+      <c r="I69" s="75"/>
+      <c r="J69" s="75"/>
+      <c r="K69" s="76">
         <f>SUM(D15,D19,D23,D27,D31,H15,H19,H23,H27,H31,L15,L19,L23,L27,L31,D35,D39,D43,D47,H35,H39,H43,H47,L35,L39,L43,L47,D55,D59,D63,H55,H59,H63,L55,L59,L63)</f>
         <v>0</v>
       </c>
-      <c r="L69" s="56"/>
+      <c r="L69" s="77"/>
     </row>
     <row r="70" spans="2:12" ht="11.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" spans="2:12" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="72" spans="2:12" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="2:12" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="2:12" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.25"/>
-    <row r="81" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="14.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="2:12" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="2:12" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="2:12" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="2:12" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="2:12" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="2:12" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="2:12" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection password="C691" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="50">
+    <mergeCell ref="B67:J67"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="B68:J68"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="B69:J69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="F53:F55"/>
+    <mergeCell ref="J53:J55"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="F57:F59"/>
+    <mergeCell ref="J57:J59"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="J45:J47"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="F41:F43"/>
+    <mergeCell ref="J37:J39"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="F45:F47"/>
+    <mergeCell ref="J41:J43"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="J21:J23"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="B1:L1"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B4:L5"/>
+    <mergeCell ref="E7:I8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="B11:L11"/>
+    <mergeCell ref="B21:B23"/>
     <mergeCell ref="B51:L51"/>
     <mergeCell ref="B61:B63"/>
     <mergeCell ref="F61:F63"/>
@@ -2689,40 +2738,6 @@
     <mergeCell ref="B33:B35"/>
     <mergeCell ref="F37:F39"/>
     <mergeCell ref="J33:J35"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="J21:J23"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="B1:L1"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="B4:L5"/>
-    <mergeCell ref="E7:I8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="B11:L11"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="J45:J47"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="F41:F43"/>
-    <mergeCell ref="J37:J39"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="F45:F47"/>
-    <mergeCell ref="J41:J43"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="F53:F55"/>
-    <mergeCell ref="J53:J55"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="F57:F59"/>
-    <mergeCell ref="J57:J59"/>
-    <mergeCell ref="B67:J67"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="B68:J68"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="B69:J69"/>
-    <mergeCell ref="K69:L69"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" scale="42" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
